--- a/xlsxs/DisplayConfig.xlsx
+++ b/xlsxs/DisplayConfig.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>meshPath</t>
+  </si>
+  <si>
     <t>materialPath</t>
   </si>
   <si>
@@ -78,6 +81,18 @@
   </si>
   <si>
     <t>Material/Material 3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>texture/导出/action/action_Mesh</t>
+  </si>
+  <si>
+    <t>Material/Material 4</t>
+  </si>
+  <si>
+    <t>Spine</t>
   </si>
 </sst>
 </file>
@@ -1323,28 +1338,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.7166666666667" style="1"/>
-    <col min="2" max="2" width="22.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7166666666667" style="1"/>
-    <col min="5" max="5" width="14.1583333333333" style="1" customWidth="1"/>
-    <col min="6" max="9" width="10.7166666666667" style="1"/>
-    <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0083333333333" style="1" customWidth="1"/>
-    <col min="12" max="25" width="10.7166666666667" style="1"/>
-    <col min="26" max="26" width="23.6583333333333" style="1" customWidth="1"/>
-    <col min="27" max="1024" width="10.7166666666667" style="1"/>
+    <col min="2" max="3" width="22.8666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7166666666667" style="1"/>
+    <col min="6" max="6" width="14.1583333333333" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.7166666666667" style="1"/>
+    <col min="11" max="11" width="18.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.0083333333333" style="1" customWidth="1"/>
+    <col min="13" max="26" width="10.7166666666667" style="1"/>
+    <col min="27" max="27" width="23.6583333333333" style="1" customWidth="1"/>
+    <col min="28" max="1025" width="10.7166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,32 +1375,35 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" ht="17" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1395,38 +1413,55 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
